--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Megoldandó feladatok ECAFE</t>
   </si>
@@ -33,10 +33,22 @@
     <t>Uj partner felvitele</t>
   </si>
   <si>
-    <t>új cikk felvitele</t>
-  </si>
-  <si>
     <t>Partner mentésnél a nemet nem menti el</t>
+  </si>
+  <si>
+    <t>új cikk felvitele bevételezésnél</t>
+  </si>
+  <si>
+    <t>Rendelés nyomtatása</t>
+  </si>
+  <si>
+    <t>Rendelésnél összesítő nézet</t>
+  </si>
+  <si>
+    <t>Kell egy timer a User kiléptetésre</t>
+  </si>
+  <si>
+    <t>Ki kell írni a belépett felhasználót.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +384,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -431,26 +443,38 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
